--- a/Code/Results/Cases/Case_7_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_line/loading_percent.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72625651951855</v>
+        <v>19.72625651951845</v>
       </c>
       <c r="C3">
-        <v>13.90928822460621</v>
+        <v>13.90928822460587</v>
       </c>
       <c r="D3">
-        <v>9.263080875367855</v>
+        <v>9.263080875367882</v>
       </c>
       <c r="E3">
-        <v>10.80842062291816</v>
+        <v>10.80842062291805</v>
       </c>
       <c r="F3">
-        <v>59.20030580765108</v>
+        <v>59.20030580765093</v>
       </c>
       <c r="G3">
-        <v>2.062708994995518</v>
+        <v>2.062708994995646</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.02197260827754</v>
+        <v>17.02197260827744</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69454567058141</v>
+        <v>18.69454567058149</v>
       </c>
       <c r="C4">
-        <v>13.18938070197299</v>
+        <v>13.18938070197288</v>
       </c>
       <c r="D4">
-        <v>8.962465888989538</v>
+        <v>8.962465888989655</v>
       </c>
       <c r="E4">
-        <v>10.38246145179201</v>
+        <v>10.382461451792</v>
       </c>
       <c r="F4">
-        <v>56.68214986690438</v>
+        <v>56.68214986690487</v>
       </c>
       <c r="G4">
         <v>2.07242442948345</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.16379532254429</v>
+        <v>16.16379532254432</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.26342615644931</v>
+        <v>18.2634261564493</v>
       </c>
       <c r="C5">
-        <v>12.88894782926777</v>
+        <v>12.88894782926756</v>
       </c>
       <c r="D5">
-        <v>8.83895675365218</v>
+        <v>8.838956753652257</v>
       </c>
       <c r="E5">
-        <v>10.20705654714751</v>
+        <v>10.20705654714745</v>
       </c>
       <c r="F5">
-        <v>55.63936468657671</v>
+        <v>55.63936468657682</v>
       </c>
       <c r="G5">
-        <v>2.076415575023724</v>
+        <v>2.07641557502385</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.80517877425238</v>
+        <v>15.80517877425232</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.19118270638408</v>
+        <v>18.1911827063839</v>
       </c>
       <c r="C6">
-        <v>12.83862526711105</v>
+        <v>12.83862526711104</v>
       </c>
       <c r="D6">
-        <v>8.818387104055413</v>
+        <v>8.81838710405543</v>
       </c>
       <c r="E6">
-        <v>10.17782189778655</v>
+        <v>10.17782189778644</v>
       </c>
       <c r="F6">
-        <v>55.46520776213249</v>
+        <v>55.46520776213237</v>
       </c>
       <c r="G6">
-        <v>2.077080432663386</v>
+        <v>2.077080432663512</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.74508381036289</v>
+        <v>15.74508381036277</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68877521587967</v>
+        <v>18.68877521587962</v>
       </c>
       <c r="C7">
-        <v>13.18535798573331</v>
+        <v>13.18535798573346</v>
       </c>
       <c r="D7">
-        <v>8.960804292231703</v>
+        <v>8.960804292231625</v>
       </c>
       <c r="E7">
         <v>10.38010320969983</v>
       </c>
       <c r="F7">
-        <v>56.6681538032836</v>
+        <v>56.66815380328371</v>
       </c>
       <c r="G7">
-        <v>2.072478116794275</v>
+        <v>2.072478116794533</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.15899536427919</v>
+        <v>16.15899536427913</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.79176267189241</v>
+        <v>20.79176267189255</v>
       </c>
       <c r="C8">
-        <v>14.65429147563301</v>
+        <v>14.65429147563307</v>
       </c>
       <c r="D8">
-        <v>9.580498831279204</v>
+        <v>9.580498831279334</v>
       </c>
       <c r="E8">
-        <v>11.25668154145075</v>
+        <v>11.25668154145076</v>
       </c>
       <c r="F8">
-        <v>61.83099696467777</v>
+        <v>61.83099696467805</v>
       </c>
       <c r="G8">
-        <v>2.052430987192917</v>
+        <v>2.05243098719264</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.90824849651494</v>
+        <v>17.90824849651499</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>24.61211857374861</v>
       </c>
       <c r="C9">
-        <v>17.34035209873329</v>
+        <v>17.34035209873309</v>
       </c>
       <c r="D9">
-        <v>10.76804825939603</v>
+        <v>10.76804825939601</v>
       </c>
       <c r="E9">
-        <v>12.92038885134322</v>
+        <v>12.92038885134323</v>
       </c>
       <c r="F9">
-        <v>71.45885870031188</v>
+        <v>71.45885870031175</v>
       </c>
       <c r="G9">
-        <v>2.013516413760463</v>
+        <v>2.013516413760724</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.08626769869407</v>
+        <v>21.08626769869403</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.26900405220153</v>
+        <v>27.26900405220146</v>
       </c>
       <c r="C10">
-        <v>19.22467076088159</v>
+        <v>19.22467076088153</v>
       </c>
       <c r="D10">
-        <v>11.63123903361224</v>
+        <v>11.63123903361225</v>
       </c>
       <c r="E10">
-        <v>14.11751468545283</v>
+        <v>14.11751468545274</v>
       </c>
       <c r="F10">
-        <v>78.28526729248433</v>
+        <v>78.28526729248399</v>
       </c>
       <c r="G10">
-        <v>1.984525126913953</v>
+        <v>1.984525126914221</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.29702119183083</v>
+        <v>23.29702119183076</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.45514290194457</v>
+        <v>28.45514290194473</v>
       </c>
       <c r="C11">
-        <v>20.07093644243841</v>
+        <v>20.07093644243836</v>
       </c>
       <c r="D11">
-        <v>12.0246671851808</v>
+        <v>12.02466718518097</v>
       </c>
       <c r="E11">
-        <v>14.66009960186009</v>
+        <v>14.66009960186021</v>
       </c>
       <c r="F11">
-        <v>81.35712414334006</v>
+        <v>81.357124143341</v>
       </c>
       <c r="G11">
-        <v>1.971064393454601</v>
+        <v>1.971064393454477</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.28420465220425</v>
+        <v>24.28420465220437</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.90213128177427</v>
+        <v>28.90213128177422</v>
       </c>
       <c r="C12">
-        <v>20.390719715321</v>
+        <v>20.39071971532117</v>
       </c>
       <c r="D12">
-        <v>12.17408478406282</v>
+        <v>12.17408478406271</v>
       </c>
       <c r="E12">
-        <v>14.86569747913488</v>
+        <v>14.86569747913486</v>
       </c>
       <c r="F12">
-        <v>82.51787562104055</v>
+        <v>82.51787562103971</v>
       </c>
       <c r="G12">
-        <v>1.965908200568216</v>
+        <v>1.965908200568083</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.65625681001778</v>
+        <v>24.65625681001773</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.80594169395346</v>
+        <v>28.80594169395357</v>
       </c>
       <c r="C13">
-        <v>20.32186244768873</v>
+        <v>20.3218624476886</v>
       </c>
       <c r="D13">
-        <v>12.14187944978248</v>
+        <v>12.14187944978253</v>
       </c>
       <c r="E13">
-        <v>14.82140430555137</v>
+        <v>14.82140430555147</v>
       </c>
       <c r="F13">
-        <v>82.26795380386989</v>
+        <v>82.2679538038702</v>
       </c>
       <c r="G13">
-        <v>1.967021662698816</v>
+        <v>1.967021662698787</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.57619125344101</v>
+        <v>24.57619125344109</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.49195361120802</v>
+        <v>28.491953611208</v>
       </c>
       <c r="C14">
-        <v>20.09725297624313</v>
+        <v>20.0972529762431</v>
       </c>
       <c r="D14">
-        <v>12.03694893216505</v>
+        <v>12.03694893216503</v>
       </c>
       <c r="E14">
-        <v>14.67700873491928</v>
+        <v>14.67700873491929</v>
       </c>
       <c r="F14">
         <v>81.45265418389887</v>
       </c>
       <c r="G14">
-        <v>1.970641500303967</v>
+        <v>1.970641500303986</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.31484333488736</v>
+        <v>24.31484333488734</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29937883378004</v>
+        <v>28.2993788337801</v>
       </c>
       <c r="C15">
-        <v>19.95961466976942</v>
+        <v>19.95961466976939</v>
       </c>
       <c r="D15">
-        <v>11.97274390912577</v>
+        <v>11.97274390912589</v>
       </c>
       <c r="E15">
-        <v>14.58859421999951</v>
+        <v>14.58859421999952</v>
       </c>
       <c r="F15">
-        <v>80.95301496668657</v>
+        <v>80.95301496668689</v>
       </c>
       <c r="G15">
-        <v>1.97285042109298</v>
+        <v>1.972850421093344</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.19111969651211</v>
+        <v>27.19111969651206</v>
       </c>
       <c r="C16">
-        <v>19.16921728508251</v>
+        <v>19.16921728508258</v>
       </c>
       <c r="D16">
-        <v>11.60556857854371</v>
+        <v>11.60556857854374</v>
       </c>
       <c r="E16">
-        <v>14.08204837536278</v>
+        <v>14.08204837536281</v>
       </c>
       <c r="F16">
-        <v>78.08402426203662</v>
+        <v>78.08402426203691</v>
       </c>
       <c r="G16">
-        <v>1.985397748168409</v>
+        <v>1.985397748168659</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.2322056763441</v>
+        <v>23.23220567634413</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.50616059360816</v>
+        <v>26.50616059360809</v>
       </c>
       <c r="C17">
-        <v>18.68211146988</v>
+        <v>18.68211146987982</v>
       </c>
       <c r="D17">
-        <v>11.38071600327935</v>
+        <v>11.3807160032793</v>
       </c>
       <c r="E17">
-        <v>13.77104830870248</v>
+        <v>13.77104830870249</v>
       </c>
       <c r="F17">
-        <v>76.31686888951718</v>
+        <v>76.31686888951691</v>
       </c>
       <c r="G17">
-        <v>1.993012642525616</v>
+        <v>1.993012642525495</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.66220659632173</v>
+        <v>22.66220659632171</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10999813888743</v>
+        <v>26.10999813888754</v>
       </c>
       <c r="C18">
-        <v>18.40084984309125</v>
+        <v>18.40084984309137</v>
       </c>
       <c r="D18">
-        <v>11.25143371027395</v>
+        <v>11.25143371027403</v>
       </c>
       <c r="E18">
         <v>13.59194985039079</v>
       </c>
       <c r="F18">
-        <v>75.29712092292048</v>
+        <v>75.29712092292091</v>
       </c>
       <c r="G18">
-        <v>1.997368289148903</v>
+        <v>1.997368289149142</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.33255400682721</v>
+        <v>22.33255400682725</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.97545926069057</v>
+        <v>25.97545926069061</v>
       </c>
       <c r="C19">
-        <v>18.30540802712951</v>
+        <v>18.3054080271294</v>
       </c>
       <c r="D19">
-        <v>11.20766056647229</v>
+        <v>11.20766056647231</v>
       </c>
       <c r="E19">
-        <v>13.53126171746458</v>
+        <v>13.53126171746461</v>
       </c>
       <c r="F19">
-        <v>74.95121962066013</v>
+        <v>74.9512196206604</v>
       </c>
       <c r="G19">
-        <v>1.998839404743665</v>
+        <v>1.998839404743928</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.22060543820528</v>
+        <v>22.22060543820535</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.57929560113297</v>
+        <v>26.57929560113306</v>
       </c>
       <c r="C20">
-        <v>18.73407182381204</v>
+        <v>18.73407182381197</v>
       </c>
       <c r="D20">
-        <v>11.40464501877917</v>
+        <v>11.40464501877916</v>
       </c>
       <c r="E20">
-        <v>13.80417486811519</v>
+        <v>13.80417486811523</v>
       </c>
       <c r="F20">
-        <v>76.50531508910414</v>
+        <v>76.50531508910422</v>
       </c>
       <c r="G20">
-        <v>1.992204661667054</v>
+        <v>1.99220466166708</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.72306488052014</v>
+        <v>22.72306488052019</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.5842289691231</v>
+        <v>28.58422896912291</v>
       </c>
       <c r="C21">
-        <v>20.16323652713302</v>
+        <v>20.16323652713287</v>
       </c>
       <c r="D21">
-        <v>12.06775468585973</v>
+        <v>12.06775468585961</v>
       </c>
       <c r="E21">
-        <v>14.71941362018776</v>
+        <v>14.71941362018767</v>
       </c>
       <c r="F21">
-        <v>81.69217332806259</v>
+        <v>81.6921733280621</v>
       </c>
       <c r="G21">
-        <v>1.969580045006997</v>
+        <v>1.969580045006868</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.39164759236578</v>
+        <v>24.39164759236564</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.88256138624182</v>
+        <v>29.88256138624197</v>
       </c>
       <c r="C22">
-        <v>21.09389512499069</v>
+        <v>21.09389512499057</v>
       </c>
       <c r="D22">
         <v>12.50389668310713</v>
       </c>
       <c r="E22">
-        <v>15.31864425372245</v>
+        <v>15.31864425372246</v>
       </c>
       <c r="F22">
         <v>85.08911414737941</v>
       </c>
       <c r="G22">
-        <v>1.954437444208927</v>
+        <v>1.9544374442088</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.4723996067286</v>
+        <v>25.47239960672868</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.19029943868944</v>
+        <v>29.19029943868964</v>
       </c>
       <c r="C23">
-        <v>20.59714303792853</v>
+        <v>20.5971430379286</v>
       </c>
       <c r="D23">
-        <v>12.27073243539638</v>
+        <v>12.27073243539643</v>
       </c>
       <c r="E23">
-        <v>14.99855138507616</v>
+        <v>14.9985513850762</v>
       </c>
       <c r="F23">
-        <v>83.26702352876367</v>
+        <v>83.26702352876399</v>
       </c>
       <c r="G23">
-        <v>1.962559710376899</v>
+        <v>1.962559710376642</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.89612621589227</v>
+        <v>24.89612621589238</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.54623872387558</v>
+        <v>26.54623872387555</v>
       </c>
       <c r="C24">
-        <v>18.71058440606632</v>
+        <v>18.7105844060664</v>
       </c>
       <c r="D24">
-        <v>11.39382677013126</v>
+        <v>11.39382677013128</v>
       </c>
       <c r="E24">
-        <v>13.78919931611228</v>
+        <v>13.78919931611232</v>
       </c>
       <c r="F24">
-        <v>76.4201305239249</v>
+        <v>76.4201305239252</v>
       </c>
       <c r="G24">
-        <v>1.992570017714124</v>
+        <v>1.992570017714128</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.69555699615815</v>
+        <v>22.69555699615819</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.60785059822441</v>
+        <v>23.60785059822432</v>
       </c>
       <c r="C25">
-        <v>16.63179076032367</v>
+        <v>16.63179076032355</v>
       </c>
       <c r="D25">
-        <v>10.44914293110903</v>
+        <v>10.44914293110911</v>
       </c>
       <c r="E25">
-        <v>12.47561364512101</v>
+        <v>12.475613645121</v>
       </c>
       <c r="F25">
-        <v>68.9029900273547</v>
+        <v>68.90299002735453</v>
       </c>
       <c r="G25">
-        <v>2.024060741508311</v>
+        <v>2.024060741508299</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.25077781439184</v>
+        <v>20.25077781439185</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.33991755811618</v>
+        <v>20.9739254972148</v>
       </c>
       <c r="C2">
-        <v>15.03820903433637</v>
+        <v>16.45327505540157</v>
       </c>
       <c r="D2">
-        <v>9.746351654170386</v>
+        <v>3.54457726307656</v>
       </c>
       <c r="E2">
-        <v>11.49028611774894</v>
+        <v>14.36507349060694</v>
       </c>
       <c r="F2">
-        <v>63.19495929328388</v>
+        <v>22.79124943965336</v>
       </c>
       <c r="G2">
-        <v>2.047046230920252</v>
+        <v>31.61388413689739</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.424278165485716</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.967154293420505</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.72357339971598</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.36420227590847</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.95583994192733</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72625651951845</v>
+        <v>19.62121689596725</v>
       </c>
       <c r="C3">
-        <v>13.90928822460587</v>
+        <v>15.41132269029955</v>
       </c>
       <c r="D3">
-        <v>9.263080875367882</v>
+        <v>3.509940286382227</v>
       </c>
       <c r="E3">
-        <v>10.80842062291805</v>
+        <v>13.63370824881617</v>
       </c>
       <c r="F3">
-        <v>59.20030580765093</v>
+        <v>21.82186094095385</v>
       </c>
       <c r="G3">
-        <v>2.062708994995646</v>
+        <v>30.05487108921259</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.157421135179073</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.803580309970011</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.6767059984109</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.02197260827744</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.86480914727029</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69454567058149</v>
+        <v>18.74303832316545</v>
       </c>
       <c r="C4">
-        <v>13.18938070197288</v>
+        <v>14.73606626138552</v>
       </c>
       <c r="D4">
-        <v>8.962465888989655</v>
+        <v>3.487949051448528</v>
       </c>
       <c r="E4">
-        <v>10.382461451792</v>
+        <v>13.16532182976043</v>
       </c>
       <c r="F4">
-        <v>56.68214986690487</v>
+        <v>21.22777855540403</v>
       </c>
       <c r="G4">
-        <v>2.07242442948345</v>
+        <v>29.09254644038929</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.98857337460477</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.710301104112913</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.66358208723873</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.16379532254432</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.16020044384024</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.2634261564493</v>
+        <v>18.37316729090688</v>
       </c>
       <c r="C5">
-        <v>12.88894782926756</v>
+        <v>14.45196331459363</v>
       </c>
       <c r="D5">
-        <v>8.838956753652257</v>
+        <v>3.478811307706985</v>
       </c>
       <c r="E5">
-        <v>10.20705654714745</v>
+        <v>12.96962787370575</v>
       </c>
       <c r="F5">
-        <v>55.63936468657682</v>
+        <v>20.98628142134841</v>
       </c>
       <c r="G5">
-        <v>2.07641557502385</v>
+        <v>28.69961678790772</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.918477251005474</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.674058771647619</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.66196918208203</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.80517877425232</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.86440705047967</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1911827063839</v>
+        <v>18.31102460073419</v>
       </c>
       <c r="C6">
-        <v>12.83862526711104</v>
+        <v>14.40424900351926</v>
       </c>
       <c r="D6">
-        <v>8.81838710405543</v>
+        <v>3.47728353323719</v>
       </c>
       <c r="E6">
-        <v>10.17782189778644</v>
+        <v>12.93684318241456</v>
       </c>
       <c r="F6">
-        <v>55.46520776213237</v>
+        <v>20.94622677825356</v>
       </c>
       <c r="G6">
-        <v>2.077080432663512</v>
+        <v>28.6343404784487</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.90675904114588</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.668146678737347</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.66192103086447</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.74508381036277</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.81477034312337</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68877521587962</v>
+        <v>18.73809876166058</v>
       </c>
       <c r="C7">
-        <v>13.18535798573346</v>
+        <v>14.73227090500333</v>
       </c>
       <c r="D7">
-        <v>8.960804292231625</v>
+        <v>3.487826521766948</v>
       </c>
       <c r="E7">
-        <v>10.38010320969983</v>
+        <v>13.16270209818601</v>
       </c>
       <c r="F7">
-        <v>56.66815380328371</v>
+        <v>21.22451878937909</v>
       </c>
       <c r="G7">
-        <v>2.072478116794533</v>
+        <v>29.08724967039636</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.987633296448373</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.709805204795307</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.66354547884044</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.15899536427913</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.15624622140992</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.79176267189255</v>
+        <v>20.51736849568284</v>
       </c>
       <c r="C8">
-        <v>14.65429147563307</v>
+        <v>16.10136867655877</v>
       </c>
       <c r="D8">
-        <v>9.580498831279334</v>
+        <v>3.53278814753334</v>
       </c>
       <c r="E8">
-        <v>11.25668154145076</v>
+        <v>14.11692635946869</v>
       </c>
       <c r="F8">
-        <v>61.83099696467805</v>
+        <v>22.4569480428442</v>
       </c>
       <c r="G8">
-        <v>2.05243098719264</v>
+        <v>31.07767092966775</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.333282548339108</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.909252369077876</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.70404501116274</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.90824849651499</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.58688958896894</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.61211857374861</v>
+        <v>23.63092633540395</v>
       </c>
       <c r="C9">
-        <v>17.34035209873309</v>
+        <v>18.50553867132156</v>
       </c>
       <c r="D9">
-        <v>10.76804825939601</v>
+        <v>3.61496992670222</v>
       </c>
       <c r="E9">
-        <v>12.92038885134323</v>
+        <v>15.83410521113396</v>
       </c>
       <c r="F9">
-        <v>71.45885870031175</v>
+        <v>24.87078863601594</v>
       </c>
       <c r="G9">
-        <v>2.013516413760724</v>
+        <v>34.92237857475324</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.973034233442661</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.35826365340681</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.91641710751987</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.08626769869403</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.11528609744427</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.26900405220146</v>
+        <v>25.7518491780165</v>
       </c>
       <c r="C10">
-        <v>19.22467076088153</v>
+        <v>20.11263728895343</v>
       </c>
       <c r="D10">
-        <v>11.63123903361225</v>
+        <v>3.702594406804221</v>
       </c>
       <c r="E10">
-        <v>14.11751468545274</v>
+        <v>16.5179768104427</v>
       </c>
       <c r="F10">
-        <v>78.28526729248399</v>
+        <v>26.37987224879146</v>
       </c>
       <c r="G10">
-        <v>1.984525126914221</v>
+        <v>37.25134549494238</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.396228327233255</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.6280828699525</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.98228719868749</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.29702119183076</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.5373031408836</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.45514290194473</v>
+        <v>27.17514043164249</v>
       </c>
       <c r="C11">
-        <v>20.07093644243836</v>
+        <v>20.89395315487052</v>
       </c>
       <c r="D11">
-        <v>12.02466718518097</v>
+        <v>4.047301597267573</v>
       </c>
       <c r="E11">
-        <v>14.66009960186021</v>
+        <v>13.09301934994929</v>
       </c>
       <c r="F11">
-        <v>81.357124143341</v>
+        <v>24.92031044316763</v>
       </c>
       <c r="G11">
-        <v>1.971064393454477</v>
+        <v>34.52275827086872</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.938339839564896</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.923342266328508</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.46150574540044</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.28420465220437</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.87353145388922</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.90213128177422</v>
+        <v>27.95660140699028</v>
       </c>
       <c r="C12">
-        <v>20.39071971532117</v>
+        <v>21.23291353825223</v>
       </c>
       <c r="D12">
-        <v>12.17408478406271</v>
+        <v>4.360351122452228</v>
       </c>
       <c r="E12">
-        <v>14.86569747913486</v>
+        <v>10.98147653276966</v>
       </c>
       <c r="F12">
-        <v>82.51787562103971</v>
+        <v>23.34545241753471</v>
       </c>
       <c r="G12">
-        <v>1.965908200568083</v>
+        <v>31.69585355036616</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.90057161444232</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.259585160673126</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.16056611708413</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.65625681001773</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.15784977375604</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.80594169395357</v>
+        <v>28.31577565982499</v>
       </c>
       <c r="C13">
-        <v>20.3218624476886</v>
+        <v>21.26252710326343</v>
       </c>
       <c r="D13">
-        <v>12.14187944978253</v>
+        <v>4.65942265841191</v>
       </c>
       <c r="E13">
-        <v>14.82140430555147</v>
+        <v>10.24787101356462</v>
       </c>
       <c r="F13">
-        <v>82.2679538038702</v>
+        <v>21.53192427057824</v>
       </c>
       <c r="G13">
-        <v>1.967021662698787</v>
+        <v>28.51474135491849</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.02679283891271</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.577558308491767</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.954459771047883</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.57619125344109</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.24648732192098</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.491953611208</v>
+        <v>28.3824378376777</v>
       </c>
       <c r="C14">
-        <v>20.0972529762431</v>
+        <v>21.14474226247942</v>
       </c>
       <c r="D14">
-        <v>12.03694893216503</v>
+        <v>4.863989956723752</v>
       </c>
       <c r="E14">
-        <v>14.67700873491929</v>
+        <v>10.72140070210602</v>
       </c>
       <c r="F14">
-        <v>81.45265418389887</v>
+        <v>20.13063793907329</v>
       </c>
       <c r="G14">
-        <v>1.970641500303986</v>
+        <v>26.07906105265779</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.877354788565289</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.091578762426337</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.175758720150371</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.31484333488734</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.79449072135578</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.2993788337801</v>
+        <v>28.30754976842582</v>
       </c>
       <c r="C15">
-        <v>19.95961466976939</v>
+        <v>21.04865050317942</v>
       </c>
       <c r="D15">
-        <v>11.97274390912589</v>
+        <v>4.906075404059566</v>
       </c>
       <c r="E15">
-        <v>14.58859421999952</v>
+        <v>10.93969603816876</v>
       </c>
       <c r="F15">
-        <v>80.95301496668689</v>
+        <v>19.73606372336381</v>
       </c>
       <c r="G15">
-        <v>1.972850421093344</v>
+        <v>25.40174962894902</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.071012266840876</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.971275688293758</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.012019371702245</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.15455905590928</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.39512551337759</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.19111969651206</v>
+        <v>27.40107508384338</v>
       </c>
       <c r="C16">
-        <v>19.16921728508258</v>
+        <v>20.38979921696566</v>
       </c>
       <c r="D16">
-        <v>11.60556857854374</v>
+        <v>4.806032801029422</v>
       </c>
       <c r="E16">
-        <v>14.08204837536281</v>
+        <v>10.66566222340767</v>
       </c>
       <c r="F16">
-        <v>78.08402426203691</v>
+        <v>19.32431468209622</v>
       </c>
       <c r="G16">
-        <v>1.985397748168659</v>
+        <v>24.7753125830624</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.782524732026116</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.974410624152285</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.234257066252708</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.23220567634413</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.0480431100324</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.50616059360809</v>
+        <v>26.65118002622178</v>
       </c>
       <c r="C17">
-        <v>18.68211146987982</v>
+        <v>19.938356139338</v>
       </c>
       <c r="D17">
-        <v>11.3807160032793</v>
+        <v>4.61609713013181</v>
       </c>
       <c r="E17">
-        <v>13.77104830870249</v>
+        <v>10.02700676058837</v>
       </c>
       <c r="F17">
-        <v>76.31686888951691</v>
+        <v>19.79361813358103</v>
       </c>
       <c r="G17">
-        <v>1.993012642525495</v>
+        <v>25.67228084220634</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.056565079084905</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.239542886883799</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.803697931609005</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.66220659632171</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.58901874099164</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10999813888754</v>
+        <v>25.96573187970976</v>
       </c>
       <c r="C18">
-        <v>18.40084984309137</v>
+        <v>19.6254622109798</v>
       </c>
       <c r="D18">
-        <v>11.25143371027403</v>
+        <v>4.340101748113172</v>
       </c>
       <c r="E18">
-        <v>13.59194985039079</v>
+        <v>9.913596619311035</v>
       </c>
       <c r="F18">
-        <v>75.29712092292091</v>
+        <v>21.06467730333748</v>
       </c>
       <c r="G18">
-        <v>1.997368289149142</v>
+        <v>27.97052436911837</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.936431846472133</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.757360842197311</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.76003738980772</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.33255400682725</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.96240892110172</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.97545926069061</v>
+        <v>25.39863087322891</v>
       </c>
       <c r="C19">
-        <v>18.3054080271294</v>
+        <v>19.4560879866638</v>
       </c>
       <c r="D19">
-        <v>11.20766056647231</v>
+        <v>4.037905577433102</v>
       </c>
       <c r="E19">
-        <v>13.53126171746461</v>
+        <v>11.53660594616286</v>
       </c>
       <c r="F19">
-        <v>74.9512196206604</v>
+        <v>22.85960083085446</v>
       </c>
       <c r="G19">
-        <v>1.998839404743928</v>
+        <v>31.17462390246488</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.801712101405939</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.440683488840524</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.99850077095094</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.22060543820535</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.88302842022514</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.57929560113306</v>
+        <v>25.21318088547753</v>
       </c>
       <c r="C20">
-        <v>18.73407182381197</v>
+        <v>19.70247429116706</v>
       </c>
       <c r="D20">
-        <v>11.40464501877916</v>
+        <v>3.681017112877587</v>
       </c>
       <c r="E20">
-        <v>13.80417486811523</v>
+        <v>16.31844179043784</v>
       </c>
       <c r="F20">
-        <v>76.50531508910422</v>
+        <v>25.97192841467445</v>
       </c>
       <c r="G20">
-        <v>1.99220466166708</v>
+        <v>36.62017129932659</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.284180095488776</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.5501409805976</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.94999608021094</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.72306488052019</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.1608821374847</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.58422896912291</v>
+        <v>26.67926669505886</v>
       </c>
       <c r="C21">
-        <v>20.16323652713287</v>
+        <v>20.86818165317597</v>
       </c>
       <c r="D21">
-        <v>12.06775468585961</v>
+        <v>3.698822748677249</v>
       </c>
       <c r="E21">
-        <v>14.71941362018767</v>
+        <v>17.5685453157795</v>
       </c>
       <c r="F21">
-        <v>81.6921733280621</v>
+        <v>27.51118959654237</v>
       </c>
       <c r="G21">
-        <v>1.969580045006868</v>
+        <v>39.07481777586165</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.64434422675462</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.91909038998041</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.3161691219491</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.39164759236564</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.61334584136196</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.88256138624197</v>
+        <v>27.62824216269065</v>
       </c>
       <c r="C22">
-        <v>21.09389512499057</v>
+        <v>21.60533393288576</v>
       </c>
       <c r="D22">
-        <v>12.50389668310713</v>
+        <v>3.725452089499435</v>
       </c>
       <c r="E22">
-        <v>15.31864425372246</v>
+        <v>18.11865809171277</v>
       </c>
       <c r="F22">
-        <v>85.08911414737941</v>
+        <v>28.3834160253841</v>
       </c>
       <c r="G22">
-        <v>1.9544374442088</v>
+        <v>40.43823052616234</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.862759818745225</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.11761438494267</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.48195201536018</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.47239960672868</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.3945324877099</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.19029943868964</v>
+        <v>27.12534590155662</v>
       </c>
       <c r="C23">
-        <v>20.5971430379286</v>
+        <v>21.21459545518902</v>
       </c>
       <c r="D23">
-        <v>12.27073243539643</v>
+        <v>3.711313657170377</v>
       </c>
       <c r="E23">
-        <v>14.9985513850762</v>
+        <v>17.82654294232577</v>
       </c>
       <c r="F23">
-        <v>83.26702352876399</v>
+        <v>27.91835582397526</v>
       </c>
       <c r="G23">
-        <v>1.962559710376642</v>
+        <v>39.71169839734024</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.746445318441394</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.01101227750489</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.39159105166985</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.89612621589238</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.98036985692156</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.54623872387555</v>
+        <v>25.14131466375703</v>
       </c>
       <c r="C24">
-        <v>18.7105844060664</v>
+        <v>19.6751545610141</v>
       </c>
       <c r="D24">
-        <v>11.39382677013128</v>
+        <v>3.656162255687468</v>
       </c>
       <c r="E24">
-        <v>13.78919931611232</v>
+        <v>16.68716731633408</v>
       </c>
       <c r="F24">
-        <v>76.4201305239252</v>
+        <v>26.14721979835518</v>
       </c>
       <c r="G24">
-        <v>1.992570017714128</v>
+        <v>36.93514657741319</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.299955578416442</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.62135426729867</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.08966123415877</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.69555699615819</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.35067680238753</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.60785059822432</v>
+        <v>22.82848049976085</v>
       </c>
       <c r="C25">
-        <v>16.63179076032355</v>
+        <v>17.88499532433224</v>
       </c>
       <c r="D25">
-        <v>10.44914293110911</v>
+        <v>3.59341111052104</v>
       </c>
       <c r="E25">
-        <v>12.475613645121</v>
+        <v>15.38608719553175</v>
       </c>
       <c r="F25">
-        <v>68.90299002735453</v>
+        <v>24.21959174610088</v>
       </c>
       <c r="G25">
-        <v>2.024060741508299</v>
+        <v>33.89075887805798</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.803806347443701</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.23044889383473</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.84351533631574</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.25077781439185</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>19.4610914225072</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.9739254972148</v>
+        <v>20.86911718973113</v>
       </c>
       <c r="C2">
-        <v>16.45327505540157</v>
+        <v>17.22323497085881</v>
       </c>
       <c r="D2">
-        <v>3.54457726307656</v>
+        <v>3.747148198373807</v>
       </c>
       <c r="E2">
-        <v>14.36507349060694</v>
+        <v>14.09003764410642</v>
       </c>
       <c r="F2">
-        <v>22.79124943965336</v>
+        <v>21.52855019195398</v>
       </c>
       <c r="G2">
-        <v>31.61388413689739</v>
+        <v>28.80287183185447</v>
       </c>
       <c r="H2">
-        <v>2.424278165485716</v>
+        <v>2.360941894610049</v>
       </c>
       <c r="J2">
-        <v>9.967154293420505</v>
+        <v>10.15951670080838</v>
       </c>
       <c r="K2">
-        <v>13.72357339971598</v>
+        <v>12.79299710611674</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.93009677208184</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.243534324310725</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.95583994192733</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.06273173954913</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.62121689596725</v>
+        <v>19.54888607918331</v>
       </c>
       <c r="C3">
-        <v>15.41132269029955</v>
+        <v>16.05927225224935</v>
       </c>
       <c r="D3">
-        <v>3.509940286382227</v>
+        <v>3.666303961626731</v>
       </c>
       <c r="E3">
-        <v>13.63370824881617</v>
+        <v>13.4168645010214</v>
       </c>
       <c r="F3">
-        <v>21.82186094095385</v>
+        <v>20.73956949769549</v>
       </c>
       <c r="G3">
-        <v>30.05487108921259</v>
+        <v>27.53003609978805</v>
       </c>
       <c r="H3">
-        <v>2.157421135179073</v>
+        <v>2.113287013200486</v>
       </c>
       <c r="J3">
-        <v>9.803580309970011</v>
+        <v>10.03014561623251</v>
       </c>
       <c r="K3">
-        <v>13.6767059984109</v>
+        <v>12.87208714931469</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.09955310742323</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.112648439455789</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.86480914727029</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.9637727294581</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74303832316545</v>
+        <v>18.69143491150382</v>
       </c>
       <c r="C4">
-        <v>14.73606626138552</v>
+        <v>15.30390631467718</v>
       </c>
       <c r="D4">
-        <v>3.487949051448528</v>
+        <v>3.615557960159668</v>
       </c>
       <c r="E4">
-        <v>13.16532182976043</v>
+        <v>12.98594043421857</v>
       </c>
       <c r="F4">
-        <v>21.22777855540403</v>
+        <v>20.25689661517613</v>
       </c>
       <c r="G4">
-        <v>29.09254644038929</v>
+        <v>26.75079073739227</v>
       </c>
       <c r="H4">
-        <v>1.98857337460477</v>
+        <v>1.956422298654981</v>
       </c>
       <c r="J4">
-        <v>9.710301104112913</v>
+        <v>9.953429352815261</v>
       </c>
       <c r="K4">
-        <v>13.66358208723873</v>
+        <v>12.93191114801482</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.20691152121202</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.069428191431222</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.16020044384024</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.25358370566433</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37316729090688</v>
+        <v>18.33024033941222</v>
       </c>
       <c r="C5">
-        <v>14.45196331459363</v>
+        <v>14.98584569510112</v>
       </c>
       <c r="D5">
-        <v>3.478811307706985</v>
+        <v>3.59462106479348</v>
       </c>
       <c r="E5">
-        <v>12.96962787370575</v>
+        <v>12.8059665098848</v>
       </c>
       <c r="F5">
-        <v>20.98628142134841</v>
+        <v>20.06084153704683</v>
       </c>
       <c r="G5">
-        <v>28.69961678790772</v>
+        <v>26.43413720216794</v>
       </c>
       <c r="H5">
-        <v>1.918477251005474</v>
+        <v>1.891263950156862</v>
       </c>
       <c r="J5">
-        <v>9.674058771647619</v>
+        <v>9.922838831467933</v>
       </c>
       <c r="K5">
-        <v>13.66196918208203</v>
+        <v>12.95894570728755</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.25150230708089</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.061046939539974</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.86440705047967</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.95534804755592</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.31102460073419</v>
+        <v>18.26955326200602</v>
       </c>
       <c r="C6">
-        <v>14.40424900351926</v>
+        <v>14.93241328189863</v>
       </c>
       <c r="D6">
-        <v>3.47728353323719</v>
+        <v>3.591129595570995</v>
       </c>
       <c r="E6">
-        <v>12.93684318241456</v>
+        <v>12.77582004008453</v>
       </c>
       <c r="F6">
-        <v>20.94622677825356</v>
+        <v>20.02833122461479</v>
       </c>
       <c r="G6">
-        <v>28.6343404784487</v>
+        <v>26.38162122589409</v>
       </c>
       <c r="H6">
-        <v>1.90675904114588</v>
+        <v>1.880369121101595</v>
       </c>
       <c r="J6">
-        <v>9.668146678737347</v>
+        <v>9.917799528649191</v>
       </c>
       <c r="K6">
-        <v>13.66192103086447</v>
+        <v>12.96359017046481</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.25895765075954</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.060206869171052</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.81477034312337</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.90529597649729</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73809876166058</v>
+        <v>18.68634940622876</v>
       </c>
       <c r="C7">
-        <v>14.73227090500333</v>
+        <v>15.28904206780852</v>
       </c>
       <c r="D7">
-        <v>3.487826521766948</v>
+        <v>3.618993426679296</v>
       </c>
       <c r="E7">
-        <v>13.16270209818601</v>
+        <v>12.98320556560423</v>
       </c>
       <c r="F7">
-        <v>21.22451878937909</v>
+        <v>20.22183519922442</v>
       </c>
       <c r="G7">
-        <v>29.08724967039636</v>
+        <v>26.82129763002983</v>
       </c>
       <c r="H7">
-        <v>1.987633296448373</v>
+        <v>1.954988043448294</v>
       </c>
       <c r="J7">
-        <v>9.709805204795307</v>
+        <v>9.894159535281354</v>
       </c>
       <c r="K7">
-        <v>13.66354547884044</v>
+        <v>12.91589040581367</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.19456000710941</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.056999979512574</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.15624622140992</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.24805955892402</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.51736849568284</v>
+        <v>20.42283887607882</v>
       </c>
       <c r="C8">
-        <v>16.10136867655877</v>
+        <v>16.79771458410433</v>
       </c>
       <c r="D8">
-        <v>3.53278814753334</v>
+        <v>3.732099747701364</v>
       </c>
       <c r="E8">
-        <v>14.11692635946869</v>
+        <v>13.8607995512772</v>
       </c>
       <c r="F8">
-        <v>22.4569480428442</v>
+        <v>21.15382436397226</v>
       </c>
       <c r="G8">
-        <v>31.07767092966775</v>
+        <v>28.59910160640332</v>
       </c>
       <c r="H8">
-        <v>2.333282548339108</v>
+        <v>2.274792231209122</v>
       </c>
       <c r="J8">
-        <v>9.909252369077876</v>
+        <v>9.923351104101318</v>
       </c>
       <c r="K8">
-        <v>13.70404501116274</v>
+        <v>12.76406963579424</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.94803959880492</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.146682546049655</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.58688958896894</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.6864152640932</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.63092633540395</v>
+        <v>23.45834918192866</v>
       </c>
       <c r="C9">
-        <v>18.50553867132156</v>
+        <v>19.47351822121071</v>
       </c>
       <c r="D9">
-        <v>3.61496992670222</v>
+        <v>3.930462197145646</v>
       </c>
       <c r="E9">
-        <v>15.83410521113396</v>
+        <v>15.44166167914606</v>
       </c>
       <c r="F9">
-        <v>24.87078863601594</v>
+        <v>23.10812878478129</v>
       </c>
       <c r="G9">
-        <v>34.92237857475324</v>
+        <v>31.81290205666137</v>
       </c>
       <c r="H9">
-        <v>2.973034233442661</v>
+        <v>2.867118738659663</v>
       </c>
       <c r="J9">
-        <v>10.35826365340681</v>
+        <v>10.21690116363129</v>
       </c>
       <c r="K9">
-        <v>13.91641710751987</v>
+        <v>12.62361574389148</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.53770829884957</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.662025841041474</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.11528609744427</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.22945755416749</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.7518491780165</v>
+        <v>25.52440961362873</v>
       </c>
       <c r="C10">
-        <v>20.11263728895343</v>
+        <v>21.18788163131077</v>
       </c>
       <c r="D10">
-        <v>3.702594406804221</v>
+        <v>4.123225119451089</v>
       </c>
       <c r="E10">
-        <v>16.5179768104427</v>
+        <v>16.03053814087931</v>
       </c>
       <c r="F10">
-        <v>26.37987224879146</v>
+        <v>24.17277834867328</v>
       </c>
       <c r="G10">
-        <v>37.25134549494238</v>
+        <v>34.1359869388416</v>
       </c>
       <c r="H10">
-        <v>3.396228327233255</v>
+        <v>3.25432158304528</v>
       </c>
       <c r="J10">
-        <v>10.6280828699525</v>
+        <v>10.05830099055634</v>
       </c>
       <c r="K10">
-        <v>13.98228719868749</v>
+        <v>12.36084343714371</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.10477390516415</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.005507631308301</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.5373031408836</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.64844254272217</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.17514043164249</v>
+        <v>26.93943195304309</v>
       </c>
       <c r="C11">
-        <v>20.89395315487052</v>
+        <v>21.75856606949611</v>
       </c>
       <c r="D11">
-        <v>4.047301597267573</v>
+        <v>4.549616378597257</v>
       </c>
       <c r="E11">
-        <v>13.09301934994929</v>
+        <v>12.54040730302641</v>
       </c>
       <c r="F11">
-        <v>24.92031044316763</v>
+        <v>22.57177012098854</v>
       </c>
       <c r="G11">
-        <v>34.52275827086872</v>
+        <v>32.55422229545854</v>
       </c>
       <c r="H11">
-        <v>3.938339839564896</v>
+        <v>3.807177867757075</v>
       </c>
       <c r="J11">
-        <v>9.923342266328508</v>
+        <v>8.844143456750091</v>
       </c>
       <c r="K11">
-        <v>12.46150574540044</v>
+        <v>10.92102870517353</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.10574200413331</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.989397858189196</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.87353145388922</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.95115960701646</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.95660140699028</v>
+        <v>27.72478341879776</v>
       </c>
       <c r="C12">
-        <v>21.23291353825223</v>
+        <v>21.92383961536381</v>
       </c>
       <c r="D12">
-        <v>4.360351122452228</v>
+        <v>4.883526243386427</v>
       </c>
       <c r="E12">
-        <v>10.98147653276966</v>
+        <v>10.3942694347195</v>
       </c>
       <c r="F12">
-        <v>23.34545241753471</v>
+        <v>21.06602580277921</v>
       </c>
       <c r="G12">
-        <v>31.69585355036616</v>
+        <v>30.49089608174816</v>
       </c>
       <c r="H12">
-        <v>4.90057161444232</v>
+        <v>4.796289400460659</v>
       </c>
       <c r="J12">
-        <v>9.259585160673126</v>
+        <v>8.073012393275899</v>
       </c>
       <c r="K12">
-        <v>11.16056611708413</v>
+        <v>9.841946617894719</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.449145063166542</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.081877279140578</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.15784977375604</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.2120685231961</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.31577565982499</v>
+        <v>28.09762883929349</v>
       </c>
       <c r="C13">
-        <v>21.26252710326343</v>
+        <v>21.81367851574734</v>
       </c>
       <c r="D13">
-        <v>4.65942265841191</v>
+        <v>5.144708591765063</v>
       </c>
       <c r="E13">
-        <v>10.24787101356462</v>
+        <v>9.705157940825881</v>
       </c>
       <c r="F13">
-        <v>21.53192427057824</v>
+        <v>19.56160303046473</v>
       </c>
       <c r="G13">
-        <v>28.51474135491849</v>
+        <v>27.68804542949517</v>
       </c>
       <c r="H13">
-        <v>6.02679283891271</v>
+        <v>5.947947444144728</v>
       </c>
       <c r="J13">
-        <v>8.577558308491767</v>
+        <v>7.673881071259295</v>
       </c>
       <c r="K13">
-        <v>9.954459771047883</v>
+        <v>9.013244039307077</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.00920076500929</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.224406072417157</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.24648732192098</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.28537136014999</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.3824378376777</v>
+        <v>28.17805053015987</v>
       </c>
       <c r="C14">
-        <v>21.14474226247942</v>
+        <v>21.61060811785008</v>
       </c>
       <c r="D14">
-        <v>4.863989956723752</v>
+        <v>5.294848981789122</v>
       </c>
       <c r="E14">
-        <v>10.72140070210602</v>
+        <v>10.26356798500167</v>
       </c>
       <c r="F14">
-        <v>20.13063793907329</v>
+        <v>18.48721953290194</v>
       </c>
       <c r="G14">
-        <v>26.07906105265779</v>
+        <v>25.35251702554737</v>
       </c>
       <c r="H14">
-        <v>6.877354788565289</v>
+        <v>6.813496980250436</v>
       </c>
       <c r="J14">
-        <v>8.091578762426337</v>
+        <v>7.538446095859438</v>
       </c>
       <c r="K14">
-        <v>9.175758720150371</v>
+        <v>8.55677233532573</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.792150197664943</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.650461892974219</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.79449072135578</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.82549395575868</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.30754976842582</v>
+        <v>28.10874683940754</v>
       </c>
       <c r="C15">
-        <v>21.04865050317942</v>
+        <v>21.4993995584842</v>
       </c>
       <c r="D15">
-        <v>4.906075404059566</v>
+        <v>5.313126162694138</v>
       </c>
       <c r="E15">
-        <v>10.93969603816876</v>
+        <v>10.51086347508081</v>
       </c>
       <c r="F15">
-        <v>19.73606372336381</v>
+        <v>18.2195843693041</v>
       </c>
       <c r="G15">
-        <v>25.40174962894902</v>
+        <v>24.62775034568828</v>
       </c>
       <c r="H15">
-        <v>7.071012266840876</v>
+        <v>7.011171821375525</v>
       </c>
       <c r="J15">
-        <v>7.971275688293758</v>
+        <v>7.565075829093908</v>
       </c>
       <c r="K15">
-        <v>9.012019371702245</v>
+        <v>8.491290330816017</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.769206488066814</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.524783788576856</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.39512551337759</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.42555584350539</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.40107508384338</v>
+        <v>27.22415490011377</v>
       </c>
       <c r="C16">
-        <v>20.38979921696566</v>
+        <v>20.88799044776361</v>
       </c>
       <c r="D16">
-        <v>4.806032801029422</v>
+        <v>5.12995524855573</v>
       </c>
       <c r="E16">
-        <v>10.66566222340767</v>
+        <v>10.28928267812321</v>
       </c>
       <c r="F16">
-        <v>19.32431468209622</v>
+        <v>18.19760892585432</v>
       </c>
       <c r="G16">
-        <v>24.7753125830624</v>
+        <v>23.40001060804513</v>
       </c>
       <c r="H16">
-        <v>6.782524732026116</v>
+        <v>6.730952196175617</v>
       </c>
       <c r="J16">
-        <v>7.974410624152285</v>
+        <v>8.092419376356911</v>
       </c>
       <c r="K16">
-        <v>9.234257066252708</v>
+        <v>8.877495011223107</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.031137371744656</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.659408237483028</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.0480431100324</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.09081345355972</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.65118002622178</v>
+        <v>26.48364897827652</v>
       </c>
       <c r="C17">
-        <v>19.938356139338</v>
+        <v>20.50822817480006</v>
       </c>
       <c r="D17">
-        <v>4.61609713013181</v>
+        <v>4.916024848192442</v>
       </c>
       <c r="E17">
-        <v>10.02700676058837</v>
+        <v>9.641450460953854</v>
       </c>
       <c r="F17">
-        <v>19.79361813358103</v>
+        <v>18.74345348021859</v>
       </c>
       <c r="G17">
-        <v>25.67228084220634</v>
+        <v>23.87216994351057</v>
       </c>
       <c r="H17">
-        <v>6.056565079084905</v>
+        <v>6.004627727614638</v>
       </c>
       <c r="J17">
-        <v>8.239542886883799</v>
+        <v>8.527476002943848</v>
       </c>
       <c r="K17">
-        <v>9.803697931609005</v>
+        <v>9.400036943082387</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.361904118331616</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.047125274699553</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.58901874099164</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.64447920438858</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.96573187970976</v>
+        <v>25.79753183274853</v>
       </c>
       <c r="C18">
-        <v>19.6254622109798</v>
+        <v>20.31349959013485</v>
       </c>
       <c r="D18">
-        <v>4.340101748113172</v>
+        <v>4.649062167595527</v>
       </c>
       <c r="E18">
-        <v>9.913596619311035</v>
+        <v>9.487290324105903</v>
       </c>
       <c r="F18">
-        <v>21.06467730333748</v>
+        <v>19.88815205866661</v>
       </c>
       <c r="G18">
-        <v>27.97052436911837</v>
+        <v>25.72111680096734</v>
       </c>
       <c r="H18">
-        <v>4.936431846472133</v>
+        <v>4.874284796889898</v>
       </c>
       <c r="J18">
-        <v>8.757360842197311</v>
+        <v>9.029657981596241</v>
       </c>
       <c r="K18">
-        <v>10.76003738980772</v>
+        <v>10.15675669170198</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.835554214690974</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.713274823853459</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.96240892110172</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.0348896758072</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.39863087322891</v>
+        <v>25.22082013684304</v>
       </c>
       <c r="C19">
-        <v>19.4560879866638</v>
+        <v>20.2959997049099</v>
       </c>
       <c r="D19">
-        <v>4.037905577433102</v>
+        <v>4.369057368041907</v>
       </c>
       <c r="E19">
-        <v>11.53660594616286</v>
+        <v>11.09242592095735</v>
       </c>
       <c r="F19">
-        <v>22.85960083085446</v>
+        <v>21.43148355138404</v>
       </c>
       <c r="G19">
-        <v>31.17462390246488</v>
+        <v>28.43750420498274</v>
       </c>
       <c r="H19">
-        <v>3.801712101405939</v>
+        <v>3.715776194880088</v>
       </c>
       <c r="J19">
-        <v>9.440683488840524</v>
+        <v>9.592524464553019</v>
       </c>
       <c r="K19">
-        <v>11.99850077095094</v>
+        <v>11.09608479297363</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.42640628988371</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.572928067189562</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.88302842022514</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.97516419857887</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.21318088547753</v>
+        <v>25.00089187689111</v>
       </c>
       <c r="C20">
-        <v>19.70247429116706</v>
+        <v>20.77922466675327</v>
       </c>
       <c r="D20">
-        <v>3.681017112877587</v>
+        <v>4.06028665018564</v>
       </c>
       <c r="E20">
-        <v>16.31844179043784</v>
+        <v>15.85619408178456</v>
       </c>
       <c r="F20">
-        <v>25.97192841467445</v>
+        <v>23.97839509915637</v>
       </c>
       <c r="G20">
-        <v>36.62017129932659</v>
+        <v>33.2900029318975</v>
       </c>
       <c r="H20">
-        <v>3.284180095488776</v>
+        <v>3.15331798382764</v>
       </c>
       <c r="J20">
-        <v>10.5501409805976</v>
+        <v>10.28808865307461</v>
       </c>
       <c r="K20">
-        <v>13.94999608021094</v>
+        <v>12.47457365136844</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.24824650404728</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.949180747810439</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.1608821374847</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.27739584958319</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.67926669505886</v>
+        <v>26.41828362158994</v>
       </c>
       <c r="C21">
-        <v>20.86818165317597</v>
+        <v>21.90281498182057</v>
       </c>
       <c r="D21">
-        <v>3.698822748677249</v>
+        <v>4.231631530812772</v>
       </c>
       <c r="E21">
-        <v>17.5685453157795</v>
+        <v>17.0356163356969</v>
       </c>
       <c r="F21">
-        <v>27.51118959654237</v>
+        <v>24.63025575594865</v>
       </c>
       <c r="G21">
-        <v>39.07481777586165</v>
+        <v>36.76544165507866</v>
       </c>
       <c r="H21">
-        <v>3.64434422675462</v>
+        <v>3.47620860777742</v>
       </c>
       <c r="J21">
-        <v>10.91909038998041</v>
+        <v>9.299961659792027</v>
       </c>
       <c r="K21">
-        <v>14.3161691219491</v>
+        <v>12.21722175834296</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.87556052983813</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.189424538906351</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.61334584136196</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.70685024379249</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.62824216269065</v>
+        <v>27.33669284816333</v>
       </c>
       <c r="C22">
-        <v>21.60533393288576</v>
+        <v>22.59300124390056</v>
       </c>
       <c r="D22">
-        <v>3.725452089499435</v>
+        <v>4.365887810347884</v>
       </c>
       <c r="E22">
-        <v>18.11865809171277</v>
+        <v>17.54190962767425</v>
       </c>
       <c r="F22">
-        <v>28.3834160253841</v>
+        <v>24.92393449909416</v>
       </c>
       <c r="G22">
-        <v>40.43823052616234</v>
+        <v>38.87688068591847</v>
       </c>
       <c r="H22">
-        <v>3.862759818745225</v>
+        <v>3.670855484972006</v>
       </c>
       <c r="J22">
-        <v>11.11761438494267</v>
+        <v>8.580804904052718</v>
       </c>
       <c r="K22">
-        <v>14.48195201536018</v>
+        <v>11.97033055658655</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.58288519182645</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.291100937230119</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.3945324877099</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.46988797485936</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.12534590155662</v>
+        <v>26.85044200225859</v>
       </c>
       <c r="C23">
-        <v>21.21459545518902</v>
+        <v>22.24770368864608</v>
       </c>
       <c r="D23">
-        <v>3.711313657170377</v>
+        <v>4.283542561730204</v>
       </c>
       <c r="E23">
-        <v>17.82654294232577</v>
+        <v>17.27279873997785</v>
       </c>
       <c r="F23">
-        <v>27.91835582397526</v>
+        <v>24.83458349613076</v>
       </c>
       <c r="G23">
-        <v>39.71169839734024</v>
+        <v>37.59950772587848</v>
       </c>
       <c r="H23">
-        <v>3.746445318441394</v>
+        <v>3.568188527844615</v>
       </c>
       <c r="J23">
-        <v>11.01101227750489</v>
+        <v>9.09323918451398</v>
       </c>
       <c r="K23">
-        <v>14.39159105166985</v>
+        <v>12.14222340316678</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.7633814367547</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.270760045970297</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.98036985692156</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.06858151444222</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.14131466375703</v>
+        <v>24.92803668962453</v>
       </c>
       <c r="C24">
-        <v>19.6751545610141</v>
+        <v>20.76747451308612</v>
       </c>
       <c r="D24">
-        <v>3.656162255687468</v>
+        <v>4.033500087972964</v>
       </c>
       <c r="E24">
-        <v>16.68716731633408</v>
+        <v>16.22642636721126</v>
       </c>
       <c r="F24">
-        <v>26.14721979835518</v>
+        <v>24.1333936067931</v>
       </c>
       <c r="G24">
-        <v>36.93514657741319</v>
+        <v>33.5478986721925</v>
       </c>
       <c r="H24">
-        <v>3.299955578416442</v>
+        <v>3.168767999086173</v>
       </c>
       <c r="J24">
-        <v>10.62135426729867</v>
+        <v>10.35568055074742</v>
       </c>
       <c r="K24">
-        <v>14.08966123415877</v>
+        <v>12.58700632522777</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.32406789742301</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.04079351566917</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.35067680238753</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.46920750844755</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.82848049976085</v>
+        <v>22.67696415216756</v>
       </c>
       <c r="C25">
-        <v>17.88499532433224</v>
+        <v>18.79658749954586</v>
       </c>
       <c r="D25">
-        <v>3.59341111052104</v>
+        <v>3.872508140026012</v>
       </c>
       <c r="E25">
-        <v>15.38608719553175</v>
+        <v>15.0295140247328</v>
       </c>
       <c r="F25">
-        <v>24.21959174610088</v>
+        <v>22.6206198968555</v>
       </c>
       <c r="G25">
-        <v>33.89075887805798</v>
+        <v>30.85104993070872</v>
       </c>
       <c r="H25">
-        <v>2.803806347443701</v>
+        <v>2.711324572793021</v>
       </c>
       <c r="J25">
-        <v>10.23044889383473</v>
+        <v>10.21447977396239</v>
       </c>
       <c r="K25">
-        <v>13.84351533631574</v>
+        <v>12.67270546322345</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.66162216854885</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.511560412508446</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.4610914225072</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.57391890470121</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
